--- a/11.15test/train_1115.xlsx
+++ b/11.15test/train_1115.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,14 +33,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -48,7 +77,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -63,115 +161,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,19 +185,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,7 +215,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,19 +257,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,37 +293,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,19 +329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,13 +347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,37 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,15 +376,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -410,6 +394,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -421,6 +414,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,29 +455,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,148 +481,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -637,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,10 +981,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N798"/>
+  <dimension ref="A1:N807"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A775" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:F$1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A784" workbookViewId="0">
+      <selection activeCell="O804" sqref="O804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -36066,26 +36059,26 @@
     </row>
     <row r="798" spans="1:14">
       <c r="A798" s="1">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="B798" s="1">
+        <v>1</v>
+      </c>
+      <c r="C798" s="1">
+        <v>5</v>
+      </c>
+      <c r="D798" s="1">
+        <v>0</v>
+      </c>
+      <c r="E798" s="1">
+        <v>0</v>
+      </c>
+      <c r="F798" s="1">
+        <v>0</v>
+      </c>
+      <c r="G798" s="1">
         <v>2</v>
       </c>
-      <c r="C798" s="1">
-        <v>11</v>
-      </c>
-      <c r="D798" s="1">
-        <v>0</v>
-      </c>
-      <c r="E798" s="1">
-        <v>0</v>
-      </c>
-      <c r="F798" s="1">
-        <v>0</v>
-      </c>
-      <c r="G798" s="1">
-        <v>0</v>
-      </c>
       <c r="H798" s="1">
         <v>0</v>
       </c>
@@ -36102,10 +36095,406 @@
         <v>0</v>
       </c>
       <c r="M798" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N798">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:14">
+      <c r="A799" s="1">
+        <v>19</v>
+      </c>
+      <c r="B799" s="1">
+        <v>0</v>
+      </c>
+      <c r="C799" s="1">
+        <v>5</v>
+      </c>
+      <c r="D799" s="1">
+        <v>0</v>
+      </c>
+      <c r="E799" s="1">
+        <v>0</v>
+      </c>
+      <c r="F799" s="1">
+        <v>0</v>
+      </c>
+      <c r="G799" s="1">
+        <v>0</v>
+      </c>
+      <c r="H799" s="1">
+        <v>0</v>
+      </c>
+      <c r="I799" s="1">
+        <v>0</v>
+      </c>
+      <c r="J799" s="1">
+        <v>0</v>
+      </c>
+      <c r="K799" s="1">
+        <v>0</v>
+      </c>
+      <c r="L799" s="1">
+        <v>0</v>
+      </c>
+      <c r="M799" s="1">
+        <v>0</v>
+      </c>
+      <c r="N799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:14">
+      <c r="A800" s="1">
+        <v>19</v>
+      </c>
+      <c r="B800" s="1">
+        <v>0</v>
+      </c>
+      <c r="C800" s="1">
+        <v>5</v>
+      </c>
+      <c r="D800" s="1">
+        <v>0</v>
+      </c>
+      <c r="E800" s="1">
+        <v>0</v>
+      </c>
+      <c r="F800" s="1">
+        <v>0</v>
+      </c>
+      <c r="G800" s="1">
+        <v>1</v>
+      </c>
+      <c r="H800" s="1">
+        <v>0</v>
+      </c>
+      <c r="I800" s="1">
+        <v>0</v>
+      </c>
+      <c r="J800" s="1">
+        <v>0</v>
+      </c>
+      <c r="K800" s="1">
+        <v>0</v>
+      </c>
+      <c r="L800" s="1">
+        <v>0</v>
+      </c>
+      <c r="M800" s="1">
+        <v>0</v>
+      </c>
+      <c r="N800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:14">
+      <c r="A801" s="1">
+        <v>15</v>
+      </c>
+      <c r="B801" s="1">
+        <v>0</v>
+      </c>
+      <c r="C801" s="1">
+        <v>5</v>
+      </c>
+      <c r="D801" s="1">
+        <v>0</v>
+      </c>
+      <c r="E801" s="1">
+        <v>0</v>
+      </c>
+      <c r="F801" s="1">
+        <v>0</v>
+      </c>
+      <c r="G801" s="1">
+        <v>3</v>
+      </c>
+      <c r="H801" s="1">
+        <v>1</v>
+      </c>
+      <c r="I801" s="1">
+        <v>1</v>
+      </c>
+      <c r="J801" s="1">
+        <v>0</v>
+      </c>
+      <c r="K801" s="1">
+        <v>0</v>
+      </c>
+      <c r="L801" s="1">
+        <v>0</v>
+      </c>
+      <c r="M801" s="1">
+        <v>1</v>
+      </c>
+      <c r="N801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:14">
+      <c r="A802" s="1">
+        <v>16</v>
+      </c>
+      <c r="B802" s="1">
+        <v>0</v>
+      </c>
+      <c r="C802" s="1">
+        <v>6</v>
+      </c>
+      <c r="D802" s="1">
+        <v>0</v>
+      </c>
+      <c r="E802" s="1">
+        <v>0</v>
+      </c>
+      <c r="F802" s="1">
+        <v>0</v>
+      </c>
+      <c r="G802" s="1">
+        <v>0</v>
+      </c>
+      <c r="H802" s="1">
+        <v>0</v>
+      </c>
+      <c r="I802" s="1">
+        <v>0</v>
+      </c>
+      <c r="J802" s="1">
+        <v>0</v>
+      </c>
+      <c r="K802" s="1">
+        <v>0</v>
+      </c>
+      <c r="L802" s="1">
+        <v>0</v>
+      </c>
+      <c r="M802" s="1">
+        <v>0</v>
+      </c>
+      <c r="N802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:14">
+      <c r="A803" s="1">
+        <v>17</v>
+      </c>
+      <c r="B803" s="1">
+        <v>0</v>
+      </c>
+      <c r="C803" s="1">
+        <v>6</v>
+      </c>
+      <c r="D803" s="1">
+        <v>0</v>
+      </c>
+      <c r="E803" s="1">
+        <v>0</v>
+      </c>
+      <c r="F803" s="1">
+        <v>0</v>
+      </c>
+      <c r="G803" s="1">
+        <v>0</v>
+      </c>
+      <c r="H803" s="1">
+        <v>0</v>
+      </c>
+      <c r="I803" s="1">
+        <v>0</v>
+      </c>
+      <c r="J803" s="1">
+        <v>0</v>
+      </c>
+      <c r="K803" s="1">
+        <v>0</v>
+      </c>
+      <c r="L803" s="1">
+        <v>0</v>
+      </c>
+      <c r="M803" s="1">
+        <v>0</v>
+      </c>
+      <c r="N803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:14">
+      <c r="A804" s="1">
+        <v>18</v>
+      </c>
+      <c r="B804" s="1">
+        <v>0</v>
+      </c>
+      <c r="C804" s="1">
+        <v>5</v>
+      </c>
+      <c r="D804" s="1">
+        <v>0</v>
+      </c>
+      <c r="E804" s="1">
+        <v>0</v>
+      </c>
+      <c r="F804" s="1">
+        <v>0</v>
+      </c>
+      <c r="G804" s="1">
+        <v>0</v>
+      </c>
+      <c r="H804" s="1">
+        <v>0</v>
+      </c>
+      <c r="I804" s="1">
+        <v>0</v>
+      </c>
+      <c r="J804" s="1">
+        <v>0</v>
+      </c>
+      <c r="K804" s="1">
+        <v>0</v>
+      </c>
+      <c r="L804" s="1">
+        <v>0</v>
+      </c>
+      <c r="M804" s="1">
+        <v>0</v>
+      </c>
+      <c r="N804">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:14">
+      <c r="A805" s="1">
+        <v>16</v>
+      </c>
+      <c r="B805" s="1">
+        <v>0</v>
+      </c>
+      <c r="C805" s="1">
+        <v>5</v>
+      </c>
+      <c r="D805" s="1">
+        <v>0</v>
+      </c>
+      <c r="E805" s="1">
+        <v>0</v>
+      </c>
+      <c r="F805" s="1">
+        <v>0</v>
+      </c>
+      <c r="G805" s="1">
+        <v>2</v>
+      </c>
+      <c r="H805" s="1">
+        <v>0</v>
+      </c>
+      <c r="I805" s="1">
+        <v>1</v>
+      </c>
+      <c r="J805" s="1">
+        <v>0</v>
+      </c>
+      <c r="K805" s="1">
+        <v>0</v>
+      </c>
+      <c r="L805" s="1">
+        <v>0</v>
+      </c>
+      <c r="M805" s="1">
+        <v>0</v>
+      </c>
+      <c r="N805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:14">
+      <c r="A806" s="1">
+        <v>14</v>
+      </c>
+      <c r="B806" s="1">
+        <v>1</v>
+      </c>
+      <c r="C806" s="1">
+        <v>5</v>
+      </c>
+      <c r="D806" s="1">
+        <v>0</v>
+      </c>
+      <c r="E806" s="1">
+        <v>0</v>
+      </c>
+      <c r="F806" s="1">
+        <v>0</v>
+      </c>
+      <c r="G806" s="1">
+        <v>2</v>
+      </c>
+      <c r="H806" s="1">
+        <v>1</v>
+      </c>
+      <c r="I806" s="1">
+        <v>1</v>
+      </c>
+      <c r="J806" s="1">
+        <v>0</v>
+      </c>
+      <c r="K806" s="1">
+        <v>0</v>
+      </c>
+      <c r="L806" s="1">
+        <v>0</v>
+      </c>
+      <c r="M806" s="1">
+        <v>1</v>
+      </c>
+      <c r="N806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:14">
+      <c r="A807" s="1">
+        <v>14</v>
+      </c>
+      <c r="B807" s="1">
+        <v>1</v>
+      </c>
+      <c r="C807" s="1">
+        <v>5</v>
+      </c>
+      <c r="D807" s="1">
+        <v>0</v>
+      </c>
+      <c r="E807" s="1">
+        <v>0</v>
+      </c>
+      <c r="F807" s="1">
+        <v>0</v>
+      </c>
+      <c r="G807" s="1">
+        <v>2</v>
+      </c>
+      <c r="H807" s="1">
+        <v>1</v>
+      </c>
+      <c r="I807" s="1">
+        <v>1</v>
+      </c>
+      <c r="J807" s="1">
+        <v>0</v>
+      </c>
+      <c r="K807" s="1">
+        <v>0</v>
+      </c>
+      <c r="L807" s="1">
+        <v>0</v>
+      </c>
+      <c r="M807" s="1">
+        <v>1</v>
+      </c>
+      <c r="N807">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
